--- a/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,4</t>
+          <t>-2,87; 9,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 16,06</t>
+          <t>1,86; 16,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,66</t>
+          <t>-0,91; 9,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 74,84</t>
+          <t>-16,56; 79,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 110,53</t>
+          <t>8,02; 107,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 76,89</t>
+          <t>-4,53; 76,06</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,73</t>
+          <t>6,28; 16,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,83</t>
+          <t>5,26; 15,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,51</t>
+          <t>4,92; 14,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,38</t>
+          <t>-0,01; 10,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 135,06</t>
+          <t>38,57; 145,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,09; 128,51</t>
+          <t>29,33; 131,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 152,42</t>
+          <t>33,29; 144,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 62,66</t>
+          <t>0,07; 61,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 19,89</t>
+          <t>8,17; 19,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 13,09</t>
+          <t>1,37; 14,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 12,25</t>
+          <t>0,1; 11,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,65</t>
+          <t>-0,2; 9,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,45; 225,42</t>
+          <t>56,89; 234,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 101,72</t>
+          <t>4,87; 107,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 115,21</t>
+          <t>1,1; 105,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 77,76</t>
+          <t>-1,5; 76,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 16,46</t>
+          <t>5,14; 15,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 17,91</t>
+          <t>8,69; 18,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 17,31</t>
+          <t>4,4; 17,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,18</t>
+          <t>-4,16; 7,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,73; 166,34</t>
+          <t>34,58; 153,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,57; 133,62</t>
+          <t>48,57; 131,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,77; 141,91</t>
+          <t>25,65; 138,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 47,7</t>
+          <t>-17,97; 46,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 16,49</t>
+          <t>3,01; 16,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,59</t>
+          <t>5,25; 22,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,35</t>
+          <t>1,67; 15,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 17,72</t>
+          <t>3,39; 17,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 239,88</t>
+          <t>25,02; 249,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,75; 160,61</t>
+          <t>21,03; 156,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 167,49</t>
+          <t>8,53; 158,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 175,22</t>
+          <t>26,27; 171,13</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,46</t>
+          <t>3,73; 17,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 16,0</t>
+          <t>0,37; 15,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 16,82</t>
+          <t>2,41; 17,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,82</t>
+          <t>2,57; 11,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 143,38</t>
+          <t>19,36; 139,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 99,18</t>
+          <t>0,26; 91,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 97,43</t>
+          <t>8,0; 104,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 109,37</t>
+          <t>16,31; 108,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,77</t>
+          <t>3,6; 12,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,94</t>
+          <t>8,02; 17,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,32</t>
+          <t>2,84; 11,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 10,83</t>
+          <t>-5,14; 10,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 86,73</t>
+          <t>20,46; 92,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,32; 159,12</t>
+          <t>54,4; 160,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 82,08</t>
+          <t>14,74; 79,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 68,86</t>
+          <t>-22,98; 65,53</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,99</t>
+          <t>4,69; 13,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,22</t>
+          <t>2,21; 10,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,19</t>
+          <t>3,82; 11,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 12,4</t>
+          <t>-9,77; 12,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,5; 101,83</t>
+          <t>27,86; 102,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,47; 72,97</t>
+          <t>11,5; 78,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,92; 106,42</t>
+          <t>27,49; 107,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 98,59</t>
+          <t>-31,39; 99,09</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,43; 11,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,06; 12,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,34; 10,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,84</t>
+          <t>1,24; 7,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,66; 86,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>48,48; 83,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>40,93; 73,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 51,06</t>
+          <t>2,01; 50,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 9,92</t>
+          <t>-2,87; 10,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 16,24</t>
+          <t>1,16; 16,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 79,63</t>
+          <t>-16,68; 79,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 107,74</t>
+          <t>5,63; 115,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 16,56</t>
+          <t>5,5; 15,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,59</t>
+          <t>5,47; 16,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 14,2</t>
+          <t>5,04; 14,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 145,21</t>
+          <t>34,28; 138,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,33; 131,07</t>
+          <t>29,96; 129,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,29; 144,64</t>
+          <t>36,6; 146,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 19,83</t>
+          <t>8,15; 19,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,04</t>
+          <t>1,25; 13,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,28</t>
+          <t>0,49; 11,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,89; 234,89</t>
+          <t>59,89; 223,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 107,61</t>
+          <t>5,05; 104,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 105,05</t>
+          <t>3,0; 108,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 15,95</t>
+          <t>4,77; 16,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,0</t>
+          <t>8,92; 18,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 17,49</t>
+          <t>5,2; 17,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 153,64</t>
+          <t>31,6; 160,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,57; 131,81</t>
+          <t>50,03; 141,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,65; 138,05</t>
+          <t>29,29; 141,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 16,26</t>
+          <t>3,16; 16,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 22,09</t>
+          <t>4,43; 21,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,78</t>
+          <t>2,09; 16,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,02; 249,39</t>
+          <t>22,48; 265,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,03; 156,66</t>
+          <t>20,77; 162,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 158,87</t>
+          <t>10,55; 164,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 17,53</t>
+          <t>3,66; 16,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 15,65</t>
+          <t>1,67; 15,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 17,89</t>
+          <t>2,35; 17,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,36; 139,78</t>
+          <t>19,66; 139,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 91,25</t>
+          <t>6,43; 94,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,0; 104,57</t>
+          <t>9,53; 103,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,18</t>
+          <t>2,96; 11,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,09</t>
+          <t>8,26; 17,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,24</t>
+          <t>2,29; 11,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,46; 92,18</t>
+          <t>16,2; 88,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,4; 160,95</t>
+          <t>57,01; 160,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,74; 79,81</t>
+          <t>13,38; 79,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,02</t>
+          <t>4,83; 12,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,59</t>
+          <t>2,35; 10,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,82; 11,34</t>
+          <t>3,54; 11,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,86; 102,64</t>
+          <t>28,36; 101,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,5; 78,97</t>
+          <t>12,33; 73,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,49; 107,11</t>
+          <t>24,58; 102,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,11</t>
+          <t>7,29; 10,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,1</t>
+          <t>8,33; 12,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,12</t>
+          <t>6,46; 10,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,66; 86,13</t>
+          <t>48,76; 83,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,48; 83,32</t>
+          <t>50,52; 82,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,93; 73,56</t>
+          <t>41,66; 75,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 10,31</t>
+          <t>-2,84; 9,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 16,22</t>
+          <t>1,58; 16,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 9,54</t>
+          <t>-1,19; 9,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 79,64</t>
+          <t>-15,5; 74,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 115,92</t>
+          <t>6,01; 110,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 76,06</t>
+          <t>-6,54; 76,89</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,28</t>
+          <t>5,64; 15,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,16</t>
+          <t>5,42; 15,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,2</t>
+          <t>5,01; 14,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 10,05</t>
+          <t>0,4; 10,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 138,73</t>
+          <t>33,57; 135,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 129,44</t>
+          <t>30,09; 128,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,6; 146,07</t>
+          <t>34,58; 152,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 61,44</t>
+          <t>1,23; 62,66</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,4</t>
+          <t>7,89; 19,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,83</t>
+          <t>0,67; 13,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 11,51</t>
+          <t>0,94; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 9,51</t>
+          <t>0,22; 9,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,89; 223,61</t>
+          <t>54,45; 225,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 104,54</t>
+          <t>3,22; 101,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 108,42</t>
+          <t>5,18; 115,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 76,86</t>
+          <t>-0,39; 77,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,55</t>
+          <t>5,0; 16,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,54</t>
+          <t>8,37; 17,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 17,62</t>
+          <t>5,01; 17,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,09</t>
+          <t>-4,92; 7,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,6; 160,67</t>
+          <t>32,73; 166,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,03; 141,41</t>
+          <t>46,57; 133,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 141,32</t>
+          <t>27,77; 141,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 46,14</t>
+          <t>-20,57; 47,7</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,51</t>
+          <t>2,63; 16,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 21,48</t>
+          <t>5,13; 21,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 16,26</t>
+          <t>1,85; 16,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 17,5</t>
+          <t>3,79; 17,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,48; 265,93</t>
+          <t>18,04; 239,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 162,21</t>
+          <t>23,75; 160,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 164,12</t>
+          <t>9,54; 167,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 171,13</t>
+          <t>30,48; 175,22</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,96</t>
+          <t>3,74; 17,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,92</t>
+          <t>0,88; 16,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 17,13</t>
+          <t>1,37; 16,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,64</t>
+          <t>2,18; 11,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,66; 139,25</t>
+          <t>16,99; 143,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 94,45</t>
+          <t>3,67; 99,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 103,33</t>
+          <t>5,62; 97,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 108,59</t>
+          <t>12,4; 109,37</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,97</t>
+          <t>3,26; 11,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,07</t>
+          <t>7,79; 16,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,22</t>
+          <t>2,38; 11,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 10,24</t>
+          <t>-3,9; 10,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,2; 88,89</t>
+          <t>18,24; 86,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,01; 160,01</t>
+          <t>52,32; 159,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,38; 79,92</t>
+          <t>13,56; 82,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 65,53</t>
+          <t>-20,23; 68,86</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,99</t>
+          <t>4,8; 12,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,22</t>
+          <t>2,09; 10,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,24</t>
+          <t>3,61; 11,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 12,36</t>
+          <t>-12,33; 12,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,36; 101,33</t>
+          <t>29,5; 101,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,33; 73,16</t>
+          <t>10,47; 72,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,58; 102,63</t>
+          <t>25,92; 106,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 99,09</t>
+          <t>-38,19; 98,59</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,9</t>
+          <t>7,68; 11,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,05</t>
+          <t>8,29; 12,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,27</t>
+          <t>6,29; 10,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,84</t>
+          <t>0,5; 7,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>48,76; 83,12</t>
+          <t>52,21; 86,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>50,52; 82,76</t>
+          <t>49,41; 82,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,66; 75,91</t>
+          <t>41,6; 74,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 50,76</t>
+          <t>-0,37; 51,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>33,72%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,41; 17,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,66</t>
+          <t>-0,84; 9,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,34; 138,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 76,89</t>
+          <t>-4,66; 86,62</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>34,3%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,38</t>
+          <t>1,19; 10,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 62,66</t>
+          <t>5,44; 70,67</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>33,91%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,65</t>
+          <t>0,45; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 77,76</t>
+          <t>1,46; 81,03</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>-5,31%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 17,91</t>
+          <t>8,88; 21,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,18</t>
+          <t>-10,72; 5,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,57; 133,62</t>
+          <t>48,49; 165,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 47,7</t>
+          <t>-46,39; 33,26</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,97</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>79,47%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 17,72</t>
+          <t>-2,15; 16,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 175,22</t>
+          <t>-6,26; 158,65</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>54,64%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,82</t>
+          <t>2,42; 11,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 109,37</t>
+          <t>14,88; 113,89</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>16,71%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 10,83</t>
+          <t>-8,33; 10,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 68,86</t>
+          <t>-44,4; 69,53</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>-33,23%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 12,4</t>
+          <t>-50,19; 12,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 98,59</t>
+          <t>-68,74; 94,26</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>-1,75%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,84</t>
+          <t>-20,52; 6,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 51,06</t>
+          <t>-52,18; 43,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,4</t>
+          <t>-2,93; 10,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 17,59</t>
+          <t>4,56; 17,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 16,06</t>
+          <t>1,58; 15,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,74</t>
+          <t>-0,08; 10,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 74,84</t>
+          <t>-16,97; 86,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,34; 138,65</t>
+          <t>24,29; 137,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 110,53</t>
+          <t>6,19; 103,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 86,62</t>
+          <t>-1,07; 90,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,73</t>
+          <t>6,18; 16,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,83</t>
+          <t>5,6; 15,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,51</t>
+          <t>4,87; 14,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,87</t>
+          <t>1,63; 10,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 135,06</t>
+          <t>36,17; 147,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,09; 128,51</t>
+          <t>29,77; 128,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 152,42</t>
+          <t>31,81; 145,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 70,67</t>
+          <t>7,48; 68,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 19,89</t>
+          <t>8,18; 19,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 13,09</t>
+          <t>0,69; 13,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 12,25</t>
+          <t>0,53; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 9,73</t>
+          <t>0,47; 9,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,45; 225,42</t>
+          <t>56,35; 214,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 101,72</t>
+          <t>3,15; 100,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 115,21</t>
+          <t>3,09; 110,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 81,03</t>
+          <t>1,33; 78,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 16,46</t>
+          <t>5,36; 16,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 21,0</t>
+          <t>9,39; 21,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 17,31</t>
+          <t>5,3; 17,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 5,46</t>
+          <t>-10,31; 5,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,73; 166,34</t>
+          <t>35,39; 155,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 165,85</t>
+          <t>48,3; 171,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,77; 141,91</t>
+          <t>29,24; 137,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 33,26</t>
+          <t>-48,13; 36,63</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 16,49</t>
+          <t>2,89; 16,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,59</t>
+          <t>4,42; 21,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,35</t>
+          <t>1,84; 15,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 16,69</t>
+          <t>-1,9; 16,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 239,88</t>
+          <t>22,06; 245,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,75; 160,61</t>
+          <t>18,77; 168,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 167,49</t>
+          <t>10,88; 167,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 158,65</t>
+          <t>-7,43; 160,41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,46</t>
+          <t>2,91; 17,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 16,0</t>
+          <t>-0,17; 15,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 16,82</t>
+          <t>1,87; 17,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 11,94</t>
+          <t>2,0; 11,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 143,38</t>
+          <t>15,75; 149,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 99,18</t>
+          <t>-1,08; 91,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 97,43</t>
+          <t>7,48; 101,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 113,89</t>
+          <t>12,86; 107,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,77</t>
+          <t>3,27; 11,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,94</t>
+          <t>8,23; 17,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,32</t>
+          <t>2,72; 11,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 10,58</t>
+          <t>-7,74; 9,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 86,73</t>
+          <t>18,81; 87,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,32; 159,12</t>
+          <t>55,8; 155,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 82,08</t>
+          <t>15,24; 83,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,4; 69,53</t>
+          <t>-43,32; 62,08</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,99</t>
+          <t>4,96; 12,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,22</t>
+          <t>2,0; 9,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,19</t>
+          <t>3,96; 11,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 12,06</t>
+          <t>-47,26; 12,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,5; 101,83</t>
+          <t>31,0; 102,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,47; 72,97</t>
+          <t>12,06; 73,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,92; 106,42</t>
+          <t>27,66; 111,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,74; 94,26</t>
+          <t>-67,73; 99,75</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,52; 11,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,1; 12,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,43; 10,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,7</t>
+          <t>-20,54; 6,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,68; 84,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>47,81; 82,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>42,05; 73,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 43,71</t>
+          <t>-51,74; 42,99</t>
         </is>
       </c>
     </row>
